--- a/CTI/CTI/wwwroot/example/مثال اضافة المقررات للمتدربين.xlsx
+++ b/CTI/CTI/wwwroot/example/مثال اضافة المقررات للمتدربين.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KING\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE28455-57A6-4762-AF70-B306C7A414D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A995FDE5-2C2E-429E-B0AB-8C62E1D07ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>الرقم التدريبي</t>
+    <t>رقم المرجعي</t>
   </si>
   <si>
-    <t>رقم المقرر</t>
+    <t>الرقم الاكاديمي</t>
   </si>
 </sst>
 </file>
@@ -363,9 +363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -382,10 +380,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
